--- a/automateboringstuff/basic_excel.xlsx
+++ b/automateboringstuff/basic_excel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>Apple</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Strawberry</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
 </sst>
 </file>
@@ -454,14 +457,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="B3:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>